--- a/PROTO RF BOM.xlsx
+++ b/PROTO RF BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Documents\VISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1620F954-E69B-48A4-AD1D-BFB070C35BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0281825B-A33A-4ABF-8B8F-1F19AADA7E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D2A4A4BF-AE3C-419F-BB83-C8E00F6C355D}"/>
+    <workbookView xWindow="-16305" yWindow="-4710" windowWidth="16410" windowHeight="18825" xr2:uid="{D2A4A4BF-AE3C-419F-BB83-C8E00F6C355D}"/>
   </bookViews>
   <sheets>
     <sheet name="PROTO RF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t>Comment</t>
   </si>
@@ -389,9 +389,6 @@
     <t>1210</t>
   </si>
   <si>
-    <t>GRM32ER71E226KE15L</t>
-  </si>
-  <si>
     <t>GRM21BZ71E106KE15L</t>
   </si>
   <si>
@@ -477,6 +474,12 @@
   </si>
   <si>
     <t>ERJ-U02J182X</t>
+  </si>
+  <si>
+    <t>Make Tantalum</t>
+  </si>
+  <si>
+    <t>T529P226M010AAE200</t>
   </si>
 </sst>
 </file>
@@ -887,26 +890,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D2F4EC-404E-4DE5-A298-39FAA58B4C37}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +969,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -995,7 +999,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>115</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1108,14 +1112,17 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0.33</v>
+        <v>1.79</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1126,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1145,7 +1152,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1182,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1235,7 +1242,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>105</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1265,7 +1272,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1295,7 +1302,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1325,7 +1332,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>105</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1355,7 +1362,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1399,7 +1406,7 @@
         <v>106</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1429,7 +1436,7 @@
         <v>107</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1459,7 +1466,7 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1489,7 +1496,7 @@
         <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1517,7 +1524,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1547,7 +1554,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1577,7 +1584,7 @@
         <v>105</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1607,7 +1614,7 @@
         <v>105</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1637,7 +1644,7 @@
         <v>105</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -1667,7 +1674,7 @@
         <v>105</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1697,7 +1704,7 @@
         <v>105</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1727,7 +1734,7 @@
         <v>105</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -1757,7 +1764,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1785,7 +1792,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1813,7 +1820,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1841,7 +1848,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1869,7 +1876,7 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1897,7 +1904,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1925,7 +1932,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1953,7 +1960,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1981,7 +1988,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -2003,7 +2010,7 @@
       </c>
       <c r="I39">
         <f>SUM(I2:I37)</f>
-        <v>65.123999999999995</v>
+        <v>68.043999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2014,36 +2021,36 @@
     <hyperlink ref="E4" r:id="rId4" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GCM188R71H103KA37J?qs=N3Kl9KD794T3%2FxlXdF0Axg%3D%3D" xr:uid="{DC87184C-C138-4BC9-85A8-DD3E11F3C0E8}"/>
     <hyperlink ref="E5" r:id="rId5" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRT188R71H104KE13D?qs=qkDYIeTQ%252BEmIIzJrx3hZ8g%3D%3D" xr:uid="{06C1A7AB-AD57-478F-908E-13A3868E170A}"/>
     <hyperlink ref="E6" r:id="rId6" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM188Z71C475KE21D?qs=d0WKAl%252BL4KajNOvalhHKtQ%3D%3D" xr:uid="{30B884E0-E841-422E-9B22-CD95BAE29C01}"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM32ER71E226KE15L?qs=xcCo%252BfWZmQXyfoWprNNimw%3D%3D" xr:uid="{9AC775A9-E204-48CB-9E41-0DA0AF11573B}"/>
-    <hyperlink ref="E8" r:id="rId8" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM21BZ71E106KE15L?qs=Ey7%2FXF42M3fdXe9bIpCO9w%3D%3D" xr:uid="{313AE743-B49A-456A-80DD-9A242317B9FF}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM155R71H103MA88D?qs=IPQhFcwEUOiJ749tiEvpbg%3D%3D" xr:uid="{4506A106-E3EE-41FB-A2C5-5A4D5FB91C9B}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H102JA01J?qs=ZHVDuesenYxdF35pi1C%252BRg%3D%3D" xr:uid="{5BB90518-F7E1-45D7-AFBD-56E6A862E891}"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H1R5BA01J?qs=ouTquLLW2S7ZxQaUYcbuKA%3D%3D" xr:uid="{9833887B-633E-4E26-A1DD-327AD10BA2FB}"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GCQ1555C1H1R0WB01D?qs=0lQeLiL1qyam5A%252Bi%2FqE7oQ%3D%3D" xr:uid="{AE61CCE9-ED0A-49AE-A552-BC75BE9FAB48}"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H222GA01D?qs=d0WKAl%252BL4KaVg1TN7USDOA%3D%3D" xr:uid="{93927595-4A93-41B2-A621-2FD1B47AD382}"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GCQ1555C1H4R7WB01D?qs=0lQeLiL1qyYRZt16ZY6xZA%3D%3D" xr:uid="{96045D90-AE84-43C0-A0F6-DC70495B703B}"/>
-    <hyperlink ref="E31" r:id="rId15" display="https://au.mouser.com/ProductDetail/611-JS102000SAQN" xr:uid="{2EC0148B-5414-416C-A42F-796AEE1ABBD9}"/>
-    <hyperlink ref="E37" r:id="rId16" display="https://au.mouser.com/ProductDetail/710-830108207109" xr:uid="{779FF794-9439-4BB2-8BDA-92CA39AA4F48}"/>
-    <hyperlink ref="E34" r:id="rId17" display="https://au.mouser.com/ProductDetail/511-USBLC6-2SC6" xr:uid="{5DB077AF-9E55-4027-84E7-6C8315AEE3BF}"/>
-    <hyperlink ref="E35" r:id="rId18" display="https://au.mouser.com/ProductDetail/926-LM1117MPX3.3NOPB" xr:uid="{C4705D92-B528-43F1-9BB3-8E6097D51EB1}"/>
-    <hyperlink ref="E17" r:id="rId19" display="https://au.mouser.com/ProductDetail/859-LTST-C191KSKT" xr:uid="{5A31B587-8C8D-4889-9F20-197AE2C3D366}"/>
-    <hyperlink ref="E36" r:id="rId20" display="https://au.mouser.com/ProductDetail/949-NRF24L01P" xr:uid="{8C6E9559-B6ED-4181-8BB7-4AA77D1B3FA2}"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://au.mouser.com/ProductDetail/538-73100-0114" xr:uid="{889ED9EE-B934-4BF3-BEF2-82620B678432}"/>
-    <hyperlink ref="E20" r:id="rId22" display="https://au.mouser.com/ProductDetail/538-105017-0001" xr:uid="{344E2DA1-05F0-49A2-9D1A-86CFA9997E24}"/>
-    <hyperlink ref="E18" r:id="rId23" display="https://au.mouser.com/ProductDetail/576-2920L300-15DR" xr:uid="{007DBF07-280D-431F-9619-FD37DDA4DB09}"/>
-    <hyperlink ref="E16" r:id="rId24" display="https://au.mouser.com/ProductDetail/859-LTST-C190GKT" xr:uid="{E2EC2251-7A00-474C-BAC2-B4A372640EDA}"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://au.mouser.com/ProductDetail/611-PTS636SM43JSMTRL" xr:uid="{5AD9B9FF-6064-44F6-9527-910F5943D2C4}"/>
-    <hyperlink ref="E32" r:id="rId26" display="https://au.mouser.com/ProductDetail/511-STM32F405RGT6" xr:uid="{DC25C689-7E5A-4051-AAED-CFD3712ACF40}"/>
-    <hyperlink ref="E33" r:id="rId27" display="https://au.mouser.com/ProductDetail/824-HPP845E031R4" xr:uid="{A196FCEC-FBE2-4455-A381-0BA03D19E23F}"/>
-    <hyperlink ref="E19" r:id="rId28" display="https://au.mouser.com/ProductDetail/Murata-Electronics/BLM18PG330SN1D?qs=4Avc3lXqH4bdltMAIp8Scg%3D%3D" xr:uid="{B1B3780D-01CE-43E1-AB79-865574E3E9D5}"/>
-    <hyperlink ref="E22" r:id="rId29" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQG15WH8N2G02D?qs=d0WKAl%252BL4KbM1D8ER2hYjA%3D%3D" xr:uid="{2552C0FB-7AF6-45F8-A900-D924DB1BABE1}"/>
-    <hyperlink ref="E23" r:id="rId30" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQW15AN3N9G80D?qs=QzBtWTOodeVJ47BgUNTlYA%3D%3D" xr:uid="{CF7E500A-34E7-4354-8D3F-69554ECE830A}"/>
-    <hyperlink ref="E24" r:id="rId31" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQW15AN2N7G8ZD?qs=qkDYIeTQ%252BEkQNzM01zWRBA%3D%3D" xr:uid="{E3BE2FF7-B1C6-45D2-9DCB-76A1292B8AB4}"/>
-    <hyperlink ref="E27" r:id="rId32" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2GE0R00X?qs=Cz%252B5TvT4yly5%252BP7oLZcLxw%3D%3D" xr:uid="{4BE557FF-B033-4AD6-9115-CEAC8F6B8851}"/>
-    <hyperlink ref="E28" r:id="rId33" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2RKF2200X?qs=YMBIwoNQYdXGVZyp9CGaVg%3D%3D" xr:uid="{65EB618F-0EA3-41DB-9EA4-BB69FF9DE233}"/>
-    <hyperlink ref="E29" r:id="rId34" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2RKF2202X?qs=YMBIwoNQYdW1VNg8fYH1Ug%3D%3D" xr:uid="{19B9A322-25AA-4A3A-9F3D-60AE1F4A0937}"/>
-    <hyperlink ref="E26" r:id="rId35" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-U02J103X?qs=bKFmlxG1yYAG4yJZWhnlUA%3D%3D" xr:uid="{0E6FB7F3-29B6-4F17-8258-9E6EE0088570}"/>
-    <hyperlink ref="E25" r:id="rId36" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-U02J182X?qs=Xx7DtTQCah%2F%2FFkp3bYDmjw%3D%3D" xr:uid="{A387B71E-4D70-4870-8655-6B2F7F2AEA36}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM21BZ71E106KE15L?qs=Ey7%2FXF42M3fdXe9bIpCO9w%3D%3D" xr:uid="{313AE743-B49A-456A-80DD-9A242317B9FF}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM155R71H103MA88D?qs=IPQhFcwEUOiJ749tiEvpbg%3D%3D" xr:uid="{4506A106-E3EE-41FB-A2C5-5A4D5FB91C9B}"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H102JA01J?qs=ZHVDuesenYxdF35pi1C%252BRg%3D%3D" xr:uid="{5BB90518-F7E1-45D7-AFBD-56E6A862E891}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H1R5BA01J?qs=ouTquLLW2S7ZxQaUYcbuKA%3D%3D" xr:uid="{9833887B-633E-4E26-A1DD-327AD10BA2FB}"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GCQ1555C1H1R0WB01D?qs=0lQeLiL1qyam5A%252Bi%2FqE7oQ%3D%3D" xr:uid="{AE61CCE9-ED0A-49AE-A552-BC75BE9FAB48}"/>
+    <hyperlink ref="E14" r:id="rId12" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GRM1555C1H222GA01D?qs=d0WKAl%252BL4KaVg1TN7USDOA%3D%3D" xr:uid="{93927595-4A93-41B2-A621-2FD1B47AD382}"/>
+    <hyperlink ref="E15" r:id="rId13" display="https://au.mouser.com/ProductDetail/Murata-Electronics/GCQ1555C1H4R7WB01D?qs=0lQeLiL1qyYRZt16ZY6xZA%3D%3D" xr:uid="{96045D90-AE84-43C0-A0F6-DC70495B703B}"/>
+    <hyperlink ref="E31" r:id="rId14" display="https://au.mouser.com/ProductDetail/611-JS102000SAQN" xr:uid="{2EC0148B-5414-416C-A42F-796AEE1ABBD9}"/>
+    <hyperlink ref="E37" r:id="rId15" display="https://au.mouser.com/ProductDetail/710-830108207109" xr:uid="{779FF794-9439-4BB2-8BDA-92CA39AA4F48}"/>
+    <hyperlink ref="E34" r:id="rId16" display="https://au.mouser.com/ProductDetail/511-USBLC6-2SC6" xr:uid="{5DB077AF-9E55-4027-84E7-6C8315AEE3BF}"/>
+    <hyperlink ref="E35" r:id="rId17" display="https://au.mouser.com/ProductDetail/926-LM1117MPX3.3NOPB" xr:uid="{C4705D92-B528-43F1-9BB3-8E6097D51EB1}"/>
+    <hyperlink ref="E17" r:id="rId18" display="https://au.mouser.com/ProductDetail/859-LTST-C191KSKT" xr:uid="{5A31B587-8C8D-4889-9F20-197AE2C3D366}"/>
+    <hyperlink ref="E36" r:id="rId19" display="https://au.mouser.com/ProductDetail/949-NRF24L01P" xr:uid="{8C6E9559-B6ED-4181-8BB7-4AA77D1B3FA2}"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://au.mouser.com/ProductDetail/538-73100-0114" xr:uid="{889ED9EE-B934-4BF3-BEF2-82620B678432}"/>
+    <hyperlink ref="E20" r:id="rId21" display="https://au.mouser.com/ProductDetail/538-105017-0001" xr:uid="{344E2DA1-05F0-49A2-9D1A-86CFA9997E24}"/>
+    <hyperlink ref="E18" r:id="rId22" display="https://au.mouser.com/ProductDetail/576-2920L300-15DR" xr:uid="{007DBF07-280D-431F-9619-FD37DDA4DB09}"/>
+    <hyperlink ref="E16" r:id="rId23" display="https://au.mouser.com/ProductDetail/859-LTST-C190GKT" xr:uid="{E2EC2251-7A00-474C-BAC2-B4A372640EDA}"/>
+    <hyperlink ref="E30" r:id="rId24" display="https://au.mouser.com/ProductDetail/611-PTS636SM43JSMTRL" xr:uid="{5AD9B9FF-6064-44F6-9527-910F5943D2C4}"/>
+    <hyperlink ref="E32" r:id="rId25" display="https://au.mouser.com/ProductDetail/511-STM32F405RGT6" xr:uid="{DC25C689-7E5A-4051-AAED-CFD3712ACF40}"/>
+    <hyperlink ref="E33" r:id="rId26" display="https://au.mouser.com/ProductDetail/824-HPP845E031R4" xr:uid="{A196FCEC-FBE2-4455-A381-0BA03D19E23F}"/>
+    <hyperlink ref="E19" r:id="rId27" display="https://au.mouser.com/ProductDetail/Murata-Electronics/BLM18PG330SN1D?qs=4Avc3lXqH4bdltMAIp8Scg%3D%3D" xr:uid="{B1B3780D-01CE-43E1-AB79-865574E3E9D5}"/>
+    <hyperlink ref="E22" r:id="rId28" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQG15WH8N2G02D?qs=d0WKAl%252BL4KbM1D8ER2hYjA%3D%3D" xr:uid="{2552C0FB-7AF6-45F8-A900-D924DB1BABE1}"/>
+    <hyperlink ref="E23" r:id="rId29" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQW15AN3N9G80D?qs=QzBtWTOodeVJ47BgUNTlYA%3D%3D" xr:uid="{CF7E500A-34E7-4354-8D3F-69554ECE830A}"/>
+    <hyperlink ref="E24" r:id="rId30" display="https://au.mouser.com/ProductDetail/Murata-Electronics/LQW15AN2N7G8ZD?qs=qkDYIeTQ%252BEkQNzM01zWRBA%3D%3D" xr:uid="{E3BE2FF7-B1C6-45D2-9DCB-76A1292B8AB4}"/>
+    <hyperlink ref="E27" r:id="rId31" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2GE0R00X?qs=Cz%252B5TvT4yly5%252BP7oLZcLxw%3D%3D" xr:uid="{4BE557FF-B033-4AD6-9115-CEAC8F6B8851}"/>
+    <hyperlink ref="E28" r:id="rId32" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2RKF2200X?qs=YMBIwoNQYdXGVZyp9CGaVg%3D%3D" xr:uid="{65EB618F-0EA3-41DB-9EA4-BB69FF9DE233}"/>
+    <hyperlink ref="E29" r:id="rId33" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-2RKF2202X?qs=YMBIwoNQYdW1VNg8fYH1Ug%3D%3D" xr:uid="{19B9A322-25AA-4A3A-9F3D-60AE1F4A0937}"/>
+    <hyperlink ref="E26" r:id="rId34" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-U02J103X?qs=bKFmlxG1yYAG4yJZWhnlUA%3D%3D" xr:uid="{0E6FB7F3-29B6-4F17-8258-9E6EE0088570}"/>
+    <hyperlink ref="E25" r:id="rId35" display="https://au.mouser.com/ProductDetail/Panasonic/ERJ-U02J182X?qs=Xx7DtTQCah%2F%2FFkp3bYDmjw%3D%3D" xr:uid="{A387B71E-4D70-4870-8655-6B2F7F2AEA36}"/>
+    <hyperlink ref="E7" r:id="rId36" display="https://au.mouser.com/ProductDetail/KEMET/T529P226M010AAE200?qs=sGAEpiMZZMtZ1n0r9vR22e5QWUOfXgLf55JsvKtzNjE%3D" xr:uid="{8220FFA1-5FB9-472E-82DD-9DDC9E6E5A16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId37"/>
